--- a/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Well, good afternoon. I now convene this hearing of the Oversight and Investigations Subcommittee, entitled, ``Understanding the Cyber Threat and Implications for the 21st Century Economy.'' This is the first in a series of hearings by this committee focused on cyberspace, the Internet, and the challenges and opportunities that they present for the 21st century economy.    These are big, important issues, so it is imperative that we establish a clear understanding of the issues we face. So today we are going to do something a little different. We are not here to examine a specific cybersecurity incident, policy issue, or legislative proposal. Today we are going to take a step back and explore some fundamental questions with our experts. Such things as what is the breadth and depth of the cyber threats? Is it something that can be solved? And what does this mean for the future?    In 1969, computers at four universities connected to the ARPANET, thus proving a computer networking concept that evolved into what we now know as the Internet. Since its inception, the Internet has been an open platform, designed to facilitate the transfer of data and information between remotely located computing resources. It doesn't discriminate against any network or device, nor the transmission of the data. It is merely a conduit for information. This open architecture, end-to-end system design is what makes the Internet such a benefit to society. It provides endless possibilities for innovation. It gives any individual with an Internet connection an opportunity to share their opinion with the world, and to access a nearly infinite amount of information. It has revolutionized the way we conduct business, interact socially, learn, and consume information, be it true or false. As a result, the Internet fostered widespread development and adoption of computing and communications technologies, collectively known as information technologies. Today, we depend on these technologies for everything from social interaction to home security, the operation of critical services like power plants and the electric grid. This integration of the Internet and information technologies into nearly every aspect of modern life has created the virtual world commonly known as cyberspace.    The Internet's strength, however, is also its weakness. It is by nature an open system with many interconnections, creating multiple opportunities for disruption. Likewise, information technologies are inherently complex systems, increasing the probability of ingrained vulnerabilities. As a result, the same technological and cultural factors that facilitate real-time global interaction, rapid innovation, and freedom of expression empower malicious actors to thrive and create risk in cyberspace.    The challenge arises from the fact that cyberspace creates an asymmetric imbalance that strongly favors malicious actors. Anyone, from an individual to a nation state, can target a victim halfway around the world at minimal cost and with little risk of being caught. Because the cost of failure and the consequences of crime are minimal, the threat evolves rapidly. In contrast, the costs of defense, as well as potential consequences, are significant. Because this asymmetric threat is rooted in the fundamental structure of the Internet and information technology, there is no way to solve cybersecurity without undermining the benefits of the cyberspace. There is no silver bullet or technological solution. While we certainly can do more toimprove the security of cyberspace, these decisions require a thoughtful cost benefit analysis. How will a potential security measure affect the cost or convenience of a product? How will it affect the pace of innovation? What will it mean for privacy or civil liberties? Cyberspace is no longer a place that we visit; it is the place where we live. Ten years ago, smartphones were a novelty, in fact, the iPhone didn't even exist. Today, mobile devices serve as a credit card, they can track our health, unlock our homes, start our vehicles, and document our daily travels. A pacifier can monitor your infant's temperature and send that information directly to your computer or mobile device. Through what is known as the Internet of things, we have connected kitchen appliances, you can start dinner from the office, check social media accounts from your grill, or know when you are low on milk.    Cyberspace is, and will increasingly be, the economic engine of the 21st century economy, and at the same time as the Internet and information technology become increasingly entwined in our daily routines, cyberspace becomes a limitless and adaptive attack surface. The security challenges will be more diverse and harder to predict, and the consequences will be more severe. We may not be able to secure cyberspace, but it is our collective responsibility to understand the threat in order to minimize its effect on our privacy, civil liberties, national security, and economic prosperity. We should embrace this unique opportunity this hearing presents, not to debate data breach legislation or other specific policy issues, but to listen.    We are privileged to have an impressive panel of experts who can help us understand the challenges of cybersecurity in context. In particular, I want to recognize Dr. Shannon from Carnegie Mellon University in Pittsburgh, home to the Nation's first computer emergency response team. The Pittsburgh region boasts some of the Nation's foremost experts in the field of cybersecurity, and I am pleased to have one of those experts, Dr. Shannon, joining us here today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman. I am glad we are having the time to do a deep dive into this important topic. O&amp;I has a long history of exploring issues related to cybersecurity. Over the years, we have had hearings on cybersecurity risks. We have passed bipartisan legislation to promote security and resiliency for critical infrastructure systems. We have also examined in detail both cyber attacks and vulnerabilities within many of the sectors under this committee's jurisdiction. I hope that this series of hearings will help us have additional productive conversations about how both to understand the cyber risks and how to respond to them.    Information systems connected to the Internet are integral to the operation of our economy. While this interconnectedness is essential, the vulnerabilities that it can pose, pose serious challenges. Every day, the Internet is under attack by those with malicious intent. In the last few years, cyber attacks on federal agencies and also on private entities have skyrocketed. Every week it seems, there is a new series of headlines about cyber attacks and vulnerabilities in our system. Last week, for example, Uber revealed a breach of its driver database that had gone unreported for months. Anthem reported that millions of people who were not its customers could be victims of cyber attacks on their systems. Last year, we heard of attacks on Home Depot, Target, and JP Morgan Chase that involved the personal information of tens of millions of Americans.    So this past year alone has been a stark reminder that all industries are vulnerable, and neither the private sector or government is safe from cyber attacks. These attacks are becoming more and more frequent, and more and more sophisticated. I am personally concerned about how the loss of personally identifiable information is affecting American consumers. It is starting to appear that there are two types of these Americans. Number one, people whose data has been subject to a breach, and number two, people whose data will be subject to a breach. That seems to be how it is breaking out.    So I look forward to hearing from our witnesses today about the cybersecurity landscape. I have a couple of questions. Number one, what are the threats that we now face, and number two, what are our biggest vulnerabilities. Also, I want to hear what we are doing now, and what we can improve in the future. What are the existing standards in both the government and private industry for keeping personal information safe, and providing notification when there is a breach. How can we make sure that both the public and private sectors are using their expertise to ensure that cybersecurity measures are appropriately tailored to address the specific needs in the different sectors. More fundamentally, what is the appropriate role of government and of the private sector in securing the systems, managing cyber risks, and assessing cyber threats. How do we promote the optimal level of cooperation and information sharing within this division of labor. Unfortunately, this is a problem that doesn't have an immediate or a fissile solution.    So I am hoping that our witnesses throughout the hearings can advise us on how we can make the right strategic investments in cybersecurity in both the short and long-term. They are all smiling because they know what an impossible task this is. But this is a problem that exists far beyond our Nation's borders. We should be thinking about how we can ensure international cooperation to protect against cyber threats around the world. I understand we need to make substantial changes in the way we think about cybersecurity. This is not a problem that we have the tools to deal with immediately. And I do want to hear from our witnesses about that today, but even while we rethink our approach to cybersecurity and make necessary long-term investments, I want to know what we can do right now to protect consumers and their personal information. If data breaches have become inevitable, we need to think about how to make that data unusable once it is stolen, and that seems to be a short-term key. I want to hear from the witnesses about creative solutions in the post-breach environment. On the battlefield, a strategy for preventing the enemy from successfully using your technology against you is to render it useless if it falls into the wrong hands. I think we need to figure out ways to do this now with certain types of consumer information if it is stolen.    As Chairman Murphy said, this is just the first in a series to explore cyber threats in a variety of sectors. I want to thank the witnesses, and I look forward to our continued work.    I yield back.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and thank you for the attention to this issue. And witnesses, we appreciate that you are here as we begin to think through this process.    Cyberspace is really a place where a lot of our information now resides. It is not just something that we click onto and off of, but it is a place of residence for what I term our virtual you, which is you and all of your information. And interestingly enough, and the chairman noted the end-to-end open architecture of the system, the backbone that permits this, and you do have that original platform, that openness, which makes it what it is, and makes it a successful information service. So now, we have all of these incursions, and the malware and the spyware and the bots, and this and that, and some of these are embedded in hardware, some are there via software, and we are looking at an increased number of these attacks on our critical infrastructure every day.    Now, the chairman mentioned a little bit about the Internet of things, or as I like to say, the Internet of everything. And we know that by the end of this decade, Sysco says we are going to have 50 billion, 50 billion devices that are connected to the Internet. That is a lot of vulnerabilities. So as we look at the steps that need to be taken for privacy and for data security, we welcome your expertise and your insights, and we thank you for helping us think forward on this.    And I yield at this time to Dr. Burgess.</t>
   </si>
   <si>
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the vice chairwoman for yielding. Chairman Murphy, thank you for having the subcommittee have this hearing on reviewing the current state of cybersecurity. It is an issue that is vital to the future of commerce and our economy. Developing a strong grasp of the engineering and technical realities underpinning computer networks, and what that means for business models is an integral part of understanding cybersecurity.    I do want to acknowledge, Chairman Murphy, your comments that this is not a data breach hearing. The Subcommittee on Commerce, Manufacturing and Trade is working to finalize legislation establishing a data security requirement, and a single set of breach notification rules for entities under the Federal Trade Committee's jurisdiction. But that is just one piece of the broader puzzle, and I look forward to the broader discussion of cybersecurity at today's hearing.    Thank you, Mr. Chairman. I will yield back the balance of the time.</t>
   </si>
   <si>
@@ -97,18 +85,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to borrow the words of one of our witnesses here today. Dr. Shannon, in summarizing the cybersecurity landscape, says this in his written testimony, and I quote, ``Currently there is no manner in which an entity, public or private, can be fully protected without simultaneously destroying its value. Today, there are neither the tools, technology, nor resources to stop all serious cyber attacks and allow for efficient function of electronic commerce. We simply do not yet know how to do both of these together, which makes enabling continued technology research an innovation essential.'' and that is the end of his quote.    Dr. Shannon, you captured perfectly the problems we face in this area, and the challenges in responding. This committee has a long history on cybersecurity issues, and I look forward to this series of hearings as we continue to examine this area.    Unfortunately, our ability to protect against cyber attacks while improving still appears to lack what is needed to prevent these intrusions. We are seeing more frequent and more severe attacks in both the public and private sectors. In just the past few years, millions of Americans have had their information compromised in data breaches. At the same time, our dependence on the Internet and interconnected information systems has only increased. Disconnecting from the Internet is not an option for a vast majority of individuals and companies alike.    The private sector seems to be no better at preventing attacks than the Federal Government. In the last year or so, we have seen breach after breach where attacks are placing Americans' personal data at risk. Attacks on Target, JP Morgan, Home Depot, Sony, and now Anthem have all underscored this fact. And these attacks illustrate that even the biggest companies with considerable resources at their disposal are not immune to these intrusions. We must also face the reality that it is much cheaper for the attackers to infiltrate than it is for us to protect and respond, and unfortunately, there is no one solution at this time to guarantee that stored information will remain secure. But we can't ignore cybersecurity until we have a solution. Instead, we need to find ways to manage the problem, and I hope this series of hearings can bring out some creative solutions on how to do just that.    In addition, we need to start thinking about post-breach protections, particularly as it relates to consumers. Clearly finding ways to strengthen existing systems is necessary, but we also need to make it harder for thieves to use stolen data after breaches occur. It is not enough for companies to simply offer a free year of credit monitoring as an answer. Rather, we need to explore ways to make consumer data less useful if it falls into the hands of the bad guys.    So, Mr. Chairman, coming up with effective solutions to these problems will be a long process, but I applaud you and our ranking member, Ms. DeGette, for starting this series of hearings, and I look forward to working with you to better protect our institutions, companies, and citizens.    I yield the remaining of my time to the gentlewoman from New York, Ms. Clarke.</t>
   </si>
   <si>
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. I would first like to thank both our Chairman Murphy and Ranking Member DeGette for having this hearing, and I would like to thank the gentleman from New Jersey, the ranking member of our full committee, Mr. Pallone, for yielding me time.    I thank our witnesses for lending their expertise, time, and talent to today's Oversight and Investigations hearing.    As you know, I was on the Homeland Security Committee for the past 8 years, and of those 8 years, I was ranking member of the Cybersecurity and Critical Infrastructure Subcommittee for 4 years, and chairwoman for 2 years. Needless to say, this issue is extremely important to me, but more importantly, to our Nation. There is no doubt that we face a challenge of incredible proportions when it comes to cyber threats. Comprehensive and effective cybersecurity policy has always been a complicated endeavor, but in the face of the technological landscape that is constantly evolving and developing new mechanisms that threaten the integrity of our Nation's virtual presence, we stand in unchartered territory as we try to shape a government and corporate response that is effective, adaptable, and a step ahead of any threat we may encounter.    We hear about a new breach in security or impending cyber threat almost daily, so it is inarguable that the time to set our House in order has come and it is now. The security of our Nation's cyber infrastructure and our response to cyber threats is not a partisan issue. We have to work together: democrats and republicans, government and private industry, academics and public advocates, to not only protect the privacy of our citizens, but also identify and respond to security threats. Ultimately, however, it is the expertise of today's witnesses, and many others across the cyber community, that will allow us to act in the best interests of our Nation.    I look forward to listening to and learning from what today's witnesses have to share with us.    I yield back to Ranking Member DeGette.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bejtlich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bejtlich. Yes, sir.</t>
   </si>
   <si>
@@ -133,7 +112,7 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you. All the witnesses answered in the affirmative. So you are now under oath and subject to the penalties set forth in Title XVIII, section 1001 of the United States Code. We will recognize you each for a 5-minute summary. The rules are press the button on the mic, pull it close to you. Watch for the red light, that means your time is up.    Dr. Lin, you may begin.</t>
   </si>
   <si>
-    <t>Lin</t>
+    <t>400175</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lin. Mr. Chairman, members of the subcommittee, thanks for the opportunity to testify. Testimony today is personal, although my professional work informs it.    Let me start with two definitions. Cyberspace is computers, smartphones, the Internet, stuff with computers inside them. It is also the information inside these things, and our dependence on all of this is growing.    Here is a definition of cybersecurity that--with words like negative impact and bad guy. What is important here is that the definitions of these words are policy matters, and also cybersecurity isn't just technology. Economics, psychology, organizations, they all matter because they help to shape user behavior, which affects cybersecurity.    On security, a computer in a sealed metal box, there is supposed to be a computer inside that one on the left. There is one on mine. And it is a sealed metal box, so I guess you can't see it. That is perfectly secure, but it is useless. OK. The one on the right is useful but potentially insecure because--it is useful because you get information in and out of it. You only want good data to get into it. That requires a judgment about what counts as good, and such judgments are fallible.    Here is a network of nodes that represents the Internet. At each node there is another network or a computer. The Internet is designed with just one function really; to transport data from A to B without regard for what it means. Usefulness of the Internet comes from the computers that sit at the nodes, and this principle is what has really enabled the Internet to grow so quickly in the past. But if you believe in this principle, it also means that the network in the middle doesn't handle security. Many people want to put security in the middle, but that would violate this basic principle that has driven Internet growth and innovation, and also the change wouldn't entirely solve the cybersecurity problem. There are some exceptions to this description, but they don't really change the basic story.    Complexity is the enemy of cybersecurity. What we want from our computers requires complex systems. We put components into a system. When the system is complex enough, nobody understands the system very well, and so the system, in fact, may not be secure. And here is an example of complexity at work. You have done this before, from a browser you type in the URL, like EnergyCommerce.House.gov, and then in less than a second the E&amp;C Commerce site appears. OK. This is what is going on behind the scene. It is not worth going over each of these elements, I don't have time for it either, but at every one of these boxes, an adversary could interfere with your Web experience.    Also, adversaries adapt, and here is an example from safecracking. Good guys don't get the last move here. When we put money in wooden boxes to protect them, robbers use axes. When we used metal safes to stop them, they drilled wedges between the door and the safe. When you put in step doors, they poured in nitroglycerine, and so on. And we still haven't entirely stopped bank robberies.    The result of this is this chart. Over time, we get better at cybersecurity, that is the bottom line, but the top line, how much we depend on cyberspace and, therefore, how much the threat that we face has grown even faster, and that gap, therefore, is growing. The defenses of today would be good against the threats of 10 years ago, but the threat has changed too.    This leads to conclusion one, which is that cybersecurity is a never-ending battle. You will not find a decisive solution forever, and so you have to find ways to manage it at an acceptable cost. This really leads to two questions: why bother with cybersecurity at all, and how can we manage the problem? On the why bother, here are some reasons. You deal with the unsophisticated threats, you make yourself less vulnerable so the bad guys go after the next guy rather than you. You can give the bad guy less time to do his dirty work, and you help law enforcement focus on the harder cases. OK. Second, why is it so hard to solve this as a policy problem? Well, the reason is that we want cybersecurity, but we want other good things as well. We want rapid innovation, and it is always faster to do something without attention to security. We want convenience on cybersecurity. It mostly gets in your way. How often have you been at a computer that you couldn't get on because you forgot a password? There is also interoperability, which means sometimes you can't fix a known security problem because you are afraid of damaging existing programs. And we want privacy for us but not the bad guys. That means when we try to collect data on the bad guys, sometimes we collect data inadvertently on the good guys. And the tradeoff is that we don't know how much inadvertent collection we should tolerate to gain security. Tradeoffs are unavoidable, and that means it makes consensus hard to reach. How do you do better? Well, part one is you reduce the gap between the average and the best, and part two is you reduce the gap between the best and what you actually need.    So here is my summary of this, which is all in your--this is a one-page summary. And this reference, from which much of this testimony is drawn, I would like to incorporate that into the record of the hearing, if I may. And I think it has been distributed to members. So that is it. Thank you.</t>
@@ -148,9 +127,6 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Now, Dr. Shannon, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Shannon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shannon. Thank you. Thank you, Chairman Murphy, Ranking Member DeGette, and distinguished subcommittee members. I am honored to testify before you today on cyber threats and implications for the 21st century. I am Greg Shannon, the Chief Scientist for the CERT Division at the Software Engineering Institute, which is a DoD, FFRDC, operated by Carnegie Mellon University.    To sustain and expand our economy, consumers and businesses need to trust the cyber infrastructure ecosystem upon which commerce and innovation now depend. Those ecosystems must also thwart capable adversaries who seek to execute economy-disrupting cyber attacks. Today, in cyberspace, as noted before, there is no manner in which an entity, public or private, can fully protect itself without simultaneously eroding its own value. There are neither existing technologies nor any amount of money that would stop all serious cyber attacks, and allow for the efficient function of electronic commerce. We simply do not yet know how to do both.    As technologists, what are we to do? In the short term, we need to push for more and better measurement of outcomes, as noted earlier. Security successes as well as breaches. Collectively, if most everyone practices good cyber hygiene, we are unlikely to be undone by the weakest link, however, you cannot expect everyone to adopt a new idea without proof of efficacy, especially when implementation isn't free. The opportunity of measuring outcomes directly applies to two promising risk management frameworks, the NIST Cybersecurity Framework, and the Department of Energy's Cybersecurity Capability Maturity Model. Both of these frameworks are being measured for efficacy and will soon produce data telling us which practices matter. We need that feedback. The best-secured organizations continuously monitor how their performance correlates with their practices. Without meaningful feedback, the state-of-the-art cannot improve.    In the medium-term, we need to improve access to data, specifically for security and privacy innovation. Cyber solutions are only as good as the data they are created from. And currently, researchers and developers have limited access to data, resulting in subpar solutions and slower innovation. Sadly, just this morning, I listened to research results based on 15-year-old synthetic dataset with known serious limitations. Fortunately, I have also personally seen security innovation accelerated when scientists and engineers have access to good data; i.e., when modeling insider threats. If we can determine which subsets are essential for combatting those cyber threat, then less data would need to be shared and thereby possibly moderating privacy concerns.    In the long-term, we need a coordinated national strategy to sustainably build trust and thwart our cyber adversaries. For example, we need to eliminate the possibility that a single weakness can threaten the economy. Considering computational and human energy as a barrier, it is possible to create and operate a strategically advanced cyber infrastructure that would require adversaries to expend exceptional energy in order to pose serious cyber threats to our economy. Today it takes only modest computing and human energy to find and execute economy-threatening attacks, creating an environment that favors the adversary by orders of magnitude. Given the energy we already expend on security defenses, we can optimize our energy investments to create a more robust defense, and simultaneously apply recent research results and new technologies that makes the computational cost of finding and executing a compromise exceptionally high. In June, a DIMACS- and IEEE-sponsored workshop at Carnegie Mellon will discuss the technical foundations of this strategy. If we can create and operate a strategically advanced cyber infrastructure that requires adversaries to expend astronomical amounts of energy to find and execute economy-threatening attacks, then energy becomes the currency in which one traffics to protect or attack commerce around the world. Ultimately, access to energy could become a deterrent to economy-threatening cyber attacks.    Over the last 45 years, we have created the Internet and a modern evolving 21st century economy. Paradoxically, our own innovation and collective success have created today's trust and resiliency challenges. Nevertheless, I am optimistic that over the next 45 years, we will make our 21st century economy fully trustworthy and resilient.    Thank you.</t>
   </si>
   <si>
@@ -262,9 +238,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley [presiding]. Now that we have some balance here, we can continue. And so we will continue the hearing. I believe I am the next questioner. So thank you very much for your patience on that, and now that we have a balanced panel, we can continue.    I am trying to follow some of the hyperbolae that goes on in Washington often about cybersecurity, terrorism, debt, climate change, I was interested in the last few days the--Lee Hamilton with the 9/11 Commission came out and said the biggest threat facing America is not ISIS, but cyber attacks. The FBI director said it is the greatest threat to national security. And the director of national intelligence, Clapper, said that the online assaults undermine U.S. national security.    Do you agree that that is one of our biggest threats if not the biggest threat that we face is the issue we are talking about here today? Each of you, just kind of a yes or no.</t>
   </si>
   <si>
@@ -397,9 +370,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to thank you for coming in today to testify. The last Congress, I was the subcommittee chairman of Health and Technology on small business. I had a hearing on cybersecurity, and I don't think we can say this too often to small business, there is a threat to them, there is a threat to their very existence. And so maybe today we could just, Mr. Bejtlich, continue this discussion more as a PR to small business.    What I found was most small businesses are naive to the threat. They operate under, ``it won't happen to me.'' They are going to go after Target or Citibank or someone, they are not coming after my small business, which, in fact, and maybe you could expand on this, I think many of these folks see small businesses as the easy way into bigger companies. If they are a supplier to General Electric, if they are a supplier to a big company, an attacker can get into that small supplier and work through their connection to get through the supply chain, so to speak. But what we found was the staggering percentage of businesses that are out of business within 12 months of a data breach. It threatens their very existence because as, and you can expand on this really as well, if someone gets into their employee information, they have to provide credit insurance for that employee for some extended period of time, and that it out of their pocket, but also if a big corporation finds that that supplier was the access point, guess what, that big company is not going to buy from that supplier. If the customers find out, as we have seen, their data has been breached, they are not going to shop at that store.    So we are trying to say, and alert to small business--most of them don't have security policies, cybersecurity policies, they are sloppy with passwords, and they are just begging to be the target. So I don't know if you would want to just expand on a little bit of what I just said to--the warning to small businesses----</t>
   </si>
   <si>
@@ -431,9 +401,6 @@
   </si>
   <si>
     <t>400653</t>
-  </si>
-  <si>
-    <t>Al Green</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And I want to thank our witnesses. I apologize for goings and comings of the members because we had votes today. I guess for this hearing, the good news is that Homeland Security will stay in business.    But as we all know, last month, with the health insurer, Anthem, disclosed a significant breach of up to 80 million of its customers and employees. It is my understanding that the breach does not involve any credit or banking information, nor that there is evidence at this time that any medical information was obtained. While I appreciate the steps Anthem has taken to make it right with their customers, I do have some general questions on cybersecurity in the healthcare sector.    Dr. Shannon, is there any reason to believe that the healthcare industry is more vulnerable than other sectors to these type of data breaches, and do we have any reason to believe that the health sector is underinvesting in cybersecurity protections?</t>
@@ -907,11 +874,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -933,11 +898,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -957,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -985,11 +946,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1009,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1035,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1063,11 +1018,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1087,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1113,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1139,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1167,11 +1114,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1191,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1219,11 +1162,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1245,11 +1186,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1269,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1297,11 +1234,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1321,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1349,11 +1282,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1373,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1401,11 +1330,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1425,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1453,11 +1378,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1477,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1505,11 +1426,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1529,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1557,11 +1474,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1581,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1609,11 +1522,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1633,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1661,11 +1570,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1685,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1713,11 +1618,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1737,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1763,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1789,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1815,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1841,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1867,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1893,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1919,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1945,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1971,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1997,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2023,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2049,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2075,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2101,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2127,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2153,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2179,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2205,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2231,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2257,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2285,11 +2146,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2309,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2335,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2361,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2387,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2413,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2439,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2465,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2491,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2517,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2543,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2569,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2595,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2621,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2647,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2673,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2699,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2725,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2751,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2777,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2803,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2829,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2855,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2881,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2907,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2933,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2959,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2985,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3011,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3037,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3063,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3089,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3115,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3141,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3167,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3193,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3219,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3245,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3271,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3297,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3323,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3349,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3375,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3401,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3427,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3453,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3481,11 +3250,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3505,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3531,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3557,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" t="s">
-        <v>127</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3583,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3609,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s">
-        <v>127</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3635,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3661,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
-      </c>
-      <c r="G108" t="s">
-        <v>127</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3687,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3713,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>126</v>
-      </c>
-      <c r="G110" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3741,11 +3490,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3765,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
-      </c>
-      <c r="G112" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3791,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3817,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
-      </c>
-      <c r="G114" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3843,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3869,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3895,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
-      </c>
-      <c r="G117" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3921,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
-      </c>
-      <c r="G118" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3947,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
-      </c>
-      <c r="G119" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3973,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
-      </c>
-      <c r="G120" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3999,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4025,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" t="s">
+        <v>128</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>139</v>
-      </c>
-      <c r="H122" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4051,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4077,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4103,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4129,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
-      </c>
-      <c r="G126" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4155,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4181,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4207,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G129" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4233,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G130" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4259,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
-      </c>
-      <c r="G131" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4285,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4311,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4337,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
-      </c>
-      <c r="G134" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4365,11 +4066,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4389,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4417,11 +4114,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Well, good afternoon. I now convene this hearing of the Oversight and Investigations Subcommittee, entitled, ``Understanding the Cyber Threat and Implications for the 21st Century Economy.'' This is the first in a series of hearings by this committee focused on cyberspace, the Internet, and the challenges and opportunities that they present for the 21st century economy.    These are big, important issues, so it is imperative that we establish a clear understanding of the issues we face. So today we are going to do something a little different. We are not here to examine a specific cybersecurity incident, policy issue, or legislative proposal. Today we are going to take a step back and explore some fundamental questions with our experts. Such things as what is the breadth and depth of the cyber threats? Is it something that can be solved? And what does this mean for the future?    In 1969, computers at four universities connected to the ARPANET, thus proving a computer networking concept that evolved into what we now know as the Internet. Since its inception, the Internet has been an open platform, designed to facilitate the transfer of data and information between remotely located computing resources. It doesn't discriminate against any network or device, nor the transmission of the data. It is merely a conduit for information. This open architecture, end-to-end system design is what makes the Internet such a benefit to society. It provides endless possibilities for innovation. It gives any individual with an Internet connection an opportunity to share their opinion with the world, and to access a nearly infinite amount of information. It has revolutionized the way we conduct business, interact socially, learn, and consume information, be it true or false. As a result, the Internet fostered widespread development and adoption of computing and communications technologies, collectively known as information technologies. Today, we depend on these technologies for everything from social interaction to home security, the operation of critical services like power plants and the electric grid. This integration of the Internet and information technologies into nearly every aspect of modern life has created the virtual world commonly known as cyberspace.    The Internet's strength, however, is also its weakness. It is by nature an open system with many interconnections, creating multiple opportunities for disruption. Likewise, information technologies are inherently complex systems, increasing the probability of ingrained vulnerabilities. As a result, the same technological and cultural factors that facilitate real-time global interaction, rapid innovation, and freedom of expression empower malicious actors to thrive and create risk in cyberspace.    The challenge arises from the fact that cyberspace creates an asymmetric imbalance that strongly favors malicious actors. Anyone, from an individual to a nation state, can target a victim halfway around the world at minimal cost and with little risk of being caught. Because the cost of failure and the consequences of crime are minimal, the threat evolves rapidly. In contrast, the costs of defense, as well as potential consequences, are significant. Because this asymmetric threat is rooted in the fundamental structure of the Internet and information technology, there is no way to solve cybersecurity without undermining the benefits of the cyberspace. There is no silver bullet or technological solution. While we certainly can do more toimprove the security of cyberspace, these decisions require a thoughtful cost benefit analysis. How will a potential security measure affect the cost or convenience of a product? How will it affect the pace of innovation? What will it mean for privacy or civil liberties? Cyberspace is no longer a place that we visit; it is the place where we live. Ten years ago, smartphones were a novelty, in fact, the iPhone didn't even exist. Today, mobile devices serve as a credit card, they can track our health, unlock our homes, start our vehicles, and document our daily travels. A pacifier can monitor your infant's temperature and send that information directly to your computer or mobile device. Through what is known as the Internet of things, we have connected kitchen appliances, you can start dinner from the office, check social media accounts from your grill, or know when you are low on milk.    Cyberspace is, and will increasingly be, the economic engine of the 21st century economy, and at the same time as the Internet and information technology become increasingly entwined in our daily routines, cyberspace becomes a limitless and adaptive attack surface. The security challenges will be more diverse and harder to predict, and the consequences will be more severe. We may not be able to secure cyberspace, but it is our collective responsibility to understand the threat in order to minimize its effect on our privacy, civil liberties, national security, and economic prosperity. We should embrace this unique opportunity this hearing presents, not to debate data breach legislation or other specific policy issues, but to listen.    We are privileged to have an impressive panel of experts who can help us understand the challenges of cybersecurity in context. In particular, I want to recognize Dr. Shannon from Carnegie Mellon University in Pittsburgh, home to the Nation's first computer emergency response team. The Pittsburgh region boasts some of the Nation's foremost experts in the field of cybersecurity, and I am pleased to have one of those experts, Dr. Shannon, joining us here today.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman. I am glad we are having the time to do a deep dive into this important topic. O&amp;I has a long history of exploring issues related to cybersecurity. Over the years, we have had hearings on cybersecurity risks. We have passed bipartisan legislation to promote security and resiliency for critical infrastructure systems. We have also examined in detail both cyber attacks and vulnerabilities within many of the sectors under this committee's jurisdiction. I hope that this series of hearings will help us have additional productive conversations about how both to understand the cyber risks and how to respond to them.    Information systems connected to the Internet are integral to the operation of our economy. While this interconnectedness is essential, the vulnerabilities that it can pose, pose serious challenges. Every day, the Internet is under attack by those with malicious intent. In the last few years, cyber attacks on federal agencies and also on private entities have skyrocketed. Every week it seems, there is a new series of headlines about cyber attacks and vulnerabilities in our system. Last week, for example, Uber revealed a breach of its driver database that had gone unreported for months. Anthem reported that millions of people who were not its customers could be victims of cyber attacks on their systems. Last year, we heard of attacks on Home Depot, Target, and JP Morgan Chase that involved the personal information of tens of millions of Americans.    So this past year alone has been a stark reminder that all industries are vulnerable, and neither the private sector or government is safe from cyber attacks. These attacks are becoming more and more frequent, and more and more sophisticated. I am personally concerned about how the loss of personally identifiable information is affecting American consumers. It is starting to appear that there are two types of these Americans. Number one, people whose data has been subject to a breach, and number two, people whose data will be subject to a breach. That seems to be how it is breaking out.    So I look forward to hearing from our witnesses today about the cybersecurity landscape. I have a couple of questions. Number one, what are the threats that we now face, and number two, what are our biggest vulnerabilities. Also, I want to hear what we are doing now, and what we can improve in the future. What are the existing standards in both the government and private industry for keeping personal information safe, and providing notification when there is a breach. How can we make sure that both the public and private sectors are using their expertise to ensure that cybersecurity measures are appropriately tailored to address the specific needs in the different sectors. More fundamentally, what is the appropriate role of government and of the private sector in securing the systems, managing cyber risks, and assessing cyber threats. How do we promote the optimal level of cooperation and information sharing within this division of labor. Unfortunately, this is a problem that doesn't have an immediate or a fissile solution.    So I am hoping that our witnesses throughout the hearings can advise us on how we can make the right strategic investments in cybersecurity in both the short and long-term. They are all smiling because they know what an impossible task this is. But this is a problem that exists far beyond our Nation's borders. We should be thinking about how we can ensure international cooperation to protect against cyber threats around the world. I understand we need to make substantial changes in the way we think about cybersecurity. This is not a problem that we have the tools to deal with immediately. And I do want to hear from our witnesses about that today, but even while we rethink our approach to cybersecurity and make necessary long-term investments, I want to know what we can do right now to protect consumers and their personal information. If data breaches have become inevitable, we need to think about how to make that data unusable once it is stolen, and that seems to be a short-term key. I want to hear from the witnesses about creative solutions in the post-breach environment. On the battlefield, a strategy for preventing the enemy from successfully using your technology against you is to render it useless if it falls into the wrong hands. I think we need to figure out ways to do this now with certain types of consumer information if it is stolen.    As Chairman Murphy said, this is just the first in a series to explore cyber threats in a variety of sectors. I want to thank the witnesses, and I look forward to our continued work.    I yield back.</t>
   </si>
   <si>
@@ -70,12 +85,24 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and thank you for the attention to this issue. And witnesses, we appreciate that you are here as we begin to think through this process.    Cyberspace is really a place where a lot of our information now resides. It is not just something that we click onto and off of, but it is a place of residence for what I term our virtual you, which is you and all of your information. And interestingly enough, and the chairman noted the end-to-end open architecture of the system, the backbone that permits this, and you do have that original platform, that openness, which makes it what it is, and makes it a successful information service. So now, we have all of these incursions, and the malware and the spyware and the bots, and this and that, and some of these are embedded in hardware, some are there via software, and we are looking at an increased number of these attacks on our critical infrastructure every day.    Now, the chairman mentioned a little bit about the Internet of things, or as I like to say, the Internet of everything. And we know that by the end of this decade, Sysco says we are going to have 50 billion, 50 billion devices that are connected to the Internet. That is a lot of vulnerabilities. So as we look at the steps that need to be taken for privacy and for data security, we welcome your expertise and your insights, and we thank you for helping us think forward on this.    And I yield at this time to Dr. Burgess.</t>
   </si>
   <si>
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the vice chairwoman for yielding. Chairman Murphy, thank you for having the subcommittee have this hearing on reviewing the current state of cybersecurity. It is an issue that is vital to the future of commerce and our economy. Developing a strong grasp of the engineering and technical realities underpinning computer networks, and what that means for business models is an integral part of understanding cybersecurity.    I do want to acknowledge, Chairman Murphy, your comments that this is not a data breach hearing. The Subcommittee on Commerce, Manufacturing and Trade is working to finalize legislation establishing a data security requirement, and a single set of breach notification rules for entities under the Federal Trade Committee's jurisdiction. But that is just one piece of the broader puzzle, and I look forward to the broader discussion of cybersecurity at today's hearing.    Thank you, Mr. Chairman. I will yield back the balance of the time.</t>
   </si>
   <si>
@@ -85,12 +112,24 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to borrow the words of one of our witnesses here today. Dr. Shannon, in summarizing the cybersecurity landscape, says this in his written testimony, and I quote, ``Currently there is no manner in which an entity, public or private, can be fully protected without simultaneously destroying its value. Today, there are neither the tools, technology, nor resources to stop all serious cyber attacks and allow for efficient function of electronic commerce. We simply do not yet know how to do both of these together, which makes enabling continued technology research an innovation essential.'' and that is the end of his quote.    Dr. Shannon, you captured perfectly the problems we face in this area, and the challenges in responding. This committee has a long history on cybersecurity issues, and I look forward to this series of hearings as we continue to examine this area.    Unfortunately, our ability to protect against cyber attacks while improving still appears to lack what is needed to prevent these intrusions. We are seeing more frequent and more severe attacks in both the public and private sectors. In just the past few years, millions of Americans have had their information compromised in data breaches. At the same time, our dependence on the Internet and interconnected information systems has only increased. Disconnecting from the Internet is not an option for a vast majority of individuals and companies alike.    The private sector seems to be no better at preventing attacks than the Federal Government. In the last year or so, we have seen breach after breach where attacks are placing Americans' personal data at risk. Attacks on Target, JP Morgan, Home Depot, Sony, and now Anthem have all underscored this fact. And these attacks illustrate that even the biggest companies with considerable resources at their disposal are not immune to these intrusions. We must also face the reality that it is much cheaper for the attackers to infiltrate than it is for us to protect and respond, and unfortunately, there is no one solution at this time to guarantee that stored information will remain secure. But we can't ignore cybersecurity until we have a solution. Instead, we need to find ways to manage the problem, and I hope this series of hearings can bring out some creative solutions on how to do just that.    In addition, we need to start thinking about post-breach protections, particularly as it relates to consumers. Clearly finding ways to strengthen existing systems is necessary, but we also need to make it harder for thieves to use stolen data after breaches occur. It is not enough for companies to simply offer a free year of credit monitoring as an answer. Rather, we need to explore ways to make consumer data less useful if it falls into the hands of the bad guys.    So, Mr. Chairman, coming up with effective solutions to these problems will be a long process, but I applaud you and our ranking member, Ms. DeGette, for starting this series of hearings, and I look forward to working with you to better protect our institutions, companies, and citizens.    I yield the remaining of my time to the gentlewoman from New York, Ms. Clarke.</t>
   </si>
   <si>
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. I would first like to thank both our Chairman Murphy and Ranking Member DeGette for having this hearing, and I would like to thank the gentleman from New Jersey, the ranking member of our full committee, Mr. Pallone, for yielding me time.    I thank our witnesses for lending their expertise, time, and talent to today's Oversight and Investigations hearing.    As you know, I was on the Homeland Security Committee for the past 8 years, and of those 8 years, I was ranking member of the Cybersecurity and Critical Infrastructure Subcommittee for 4 years, and chairwoman for 2 years. Needless to say, this issue is extremely important to me, but more importantly, to our Nation. There is no doubt that we face a challenge of incredible proportions when it comes to cyber threats. Comprehensive and effective cybersecurity policy has always been a complicated endeavor, but in the face of the technological landscape that is constantly evolving and developing new mechanisms that threaten the integrity of our Nation's virtual presence, we stand in unchartered territory as we try to shape a government and corporate response that is effective, adaptable, and a step ahead of any threat we may encounter.    We hear about a new breach in security or impending cyber threat almost daily, so it is inarguable that the time to set our House in order has come and it is now. The security of our Nation's cyber infrastructure and our response to cyber threats is not a partisan issue. We have to work together: democrats and republicans, government and private industry, academics and public advocates, to not only protect the privacy of our citizens, but also identify and respond to security threats. Ultimately, however, it is the expertise of today's witnesses, and many others across the cyber community, that will allow us to act in the best interests of our Nation.    I look forward to listening to and learning from what today's witnesses have to share with us.    I yield back to Ranking Member DeGette.</t>
   </si>
   <si>
@@ -103,6 +142,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bejtlich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bejtlich. Yes, sir.</t>
   </si>
   <si>
@@ -115,6 +157,12 @@
     <t>400175</t>
   </si>
   <si>
+    <t>Hensarling</t>
+  </si>
+  <si>
+    <t>Jeb</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lin. Mr. Chairman, members of the subcommittee, thanks for the opportunity to testify. Testimony today is personal, although my professional work informs it.    Let me start with two definitions. Cyberspace is computers, smartphones, the Internet, stuff with computers inside them. It is also the information inside these things, and our dependence on all of this is growing.    Here is a definition of cybersecurity that--with words like negative impact and bad guy. What is important here is that the definitions of these words are policy matters, and also cybersecurity isn't just technology. Economics, psychology, organizations, they all matter because they help to shape user behavior, which affects cybersecurity.    On security, a computer in a sealed metal box, there is supposed to be a computer inside that one on the left. There is one on mine. And it is a sealed metal box, so I guess you can't see it. That is perfectly secure, but it is useless. OK. The one on the right is useful but potentially insecure because--it is useful because you get information in and out of it. You only want good data to get into it. That requires a judgment about what counts as good, and such judgments are fallible.    Here is a network of nodes that represents the Internet. At each node there is another network or a computer. The Internet is designed with just one function really; to transport data from A to B without regard for what it means. Usefulness of the Internet comes from the computers that sit at the nodes, and this principle is what has really enabled the Internet to grow so quickly in the past. But if you believe in this principle, it also means that the network in the middle doesn't handle security. Many people want to put security in the middle, but that would violate this basic principle that has driven Internet growth and innovation, and also the change wouldn't entirely solve the cybersecurity problem. There are some exceptions to this description, but they don't really change the basic story.    Complexity is the enemy of cybersecurity. What we want from our computers requires complex systems. We put components into a system. When the system is complex enough, nobody understands the system very well, and so the system, in fact, may not be secure. And here is an example of complexity at work. You have done this before, from a browser you type in the URL, like EnergyCommerce.House.gov, and then in less than a second the E&amp;C Commerce site appears. OK. This is what is going on behind the scene. It is not worth going over each of these elements, I don't have time for it either, but at every one of these boxes, an adversary could interfere with your Web experience.    Also, adversaries adapt, and here is an example from safecracking. Good guys don't get the last move here. When we put money in wooden boxes to protect them, robbers use axes. When we used metal safes to stop them, they drilled wedges between the door and the safe. When you put in step doors, they poured in nitroglycerine, and so on. And we still haven't entirely stopped bank robberies.    The result of this is this chart. Over time, we get better at cybersecurity, that is the bottom line, but the top line, how much we depend on cyberspace and, therefore, how much the threat that we face has grown even faster, and that gap, therefore, is growing. The defenses of today would be good against the threats of 10 years ago, but the threat has changed too.    This leads to conclusion one, which is that cybersecurity is a never-ending battle. You will not find a decisive solution forever, and so you have to find ways to manage it at an acceptable cost. This really leads to two questions: why bother with cybersecurity at all, and how can we manage the problem? On the why bother, here are some reasons. You deal with the unsophisticated threats, you make yourself less vulnerable so the bad guys go after the next guy rather than you. You can give the bad guy less time to do his dirty work, and you help law enforcement focus on the harder cases. OK. Second, why is it so hard to solve this as a policy problem? Well, the reason is that we want cybersecurity, but we want other good things as well. We want rapid innovation, and it is always faster to do something without attention to security. We want convenience on cybersecurity. It mostly gets in your way. How often have you been at a computer that you couldn't get on because you forgot a password? There is also interoperability, which means sometimes you can't fix a known security problem because you are afraid of damaging existing programs. And we want privacy for us but not the bad guys. That means when we try to collect data on the bad guys, sometimes we collect data inadvertently on the good guys. And the tradeoff is that we don't know how much inadvertent collection we should tolerate to gain security. Tradeoffs are unavoidable, and that means it makes consensus hard to reach. How do you do better? Well, part one is you reduce the gap between the average and the best, and part two is you reduce the gap between the best and what you actually need.    So here is my summary of this, which is all in your--this is a one-page summary. And this reference, from which much of this testimony is drawn, I would like to incorporate that into the record of the hearing, if I may. And I think it has been distributed to members. So that is it. Thank you.</t>
   </si>
   <si>
@@ -127,6 +175,9 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Now, Dr. Shannon, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Shannon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shannon. Thank you. Thank you, Chairman Murphy, Ranking Member DeGette, and distinguished subcommittee members. I am honored to testify before you today on cyber threats and implications for the 21st century. I am Greg Shannon, the Chief Scientist for the CERT Division at the Software Engineering Institute, which is a DoD, FFRDC, operated by Carnegie Mellon University.    To sustain and expand our economy, consumers and businesses need to trust the cyber infrastructure ecosystem upon which commerce and innovation now depend. Those ecosystems must also thwart capable adversaries who seek to execute economy-disrupting cyber attacks. Today, in cyberspace, as noted before, there is no manner in which an entity, public or private, can fully protect itself without simultaneously eroding its own value. There are neither existing technologies nor any amount of money that would stop all serious cyber attacks, and allow for the efficient function of electronic commerce. We simply do not yet know how to do both.    As technologists, what are we to do? In the short term, we need to push for more and better measurement of outcomes, as noted earlier. Security successes as well as breaches. Collectively, if most everyone practices good cyber hygiene, we are unlikely to be undone by the weakest link, however, you cannot expect everyone to adopt a new idea without proof of efficacy, especially when implementation isn't free. The opportunity of measuring outcomes directly applies to two promising risk management frameworks, the NIST Cybersecurity Framework, and the Department of Energy's Cybersecurity Capability Maturity Model. Both of these frameworks are being measured for efficacy and will soon produce data telling us which practices matter. We need that feedback. The best-secured organizations continuously monitor how their performance correlates with their practices. Without meaningful feedback, the state-of-the-art cannot improve.    In the medium-term, we need to improve access to data, specifically for security and privacy innovation. Cyber solutions are only as good as the data they are created from. And currently, researchers and developers have limited access to data, resulting in subpar solutions and slower innovation. Sadly, just this morning, I listened to research results based on 15-year-old synthetic dataset with known serious limitations. Fortunately, I have also personally seen security innovation accelerated when scientists and engineers have access to good data; i.e., when modeling insider threats. If we can determine which subsets are essential for combatting those cyber threat, then less data would need to be shared and thereby possibly moderating privacy concerns.    In the long-term, we need a coordinated national strategy to sustainably build trust and thwart our cyber adversaries. For example, we need to eliminate the possibility that a single weakness can threaten the economy. Considering computational and human energy as a barrier, it is possible to create and operate a strategically advanced cyber infrastructure that would require adversaries to expend exceptional energy in order to pose serious cyber threats to our economy. Today it takes only modest computing and human energy to find and execute economy-threatening attacks, creating an environment that favors the adversary by orders of magnitude. Given the energy we already expend on security defenses, we can optimize our energy investments to create a more robust defense, and simultaneously apply recent research results and new technologies that makes the computational cost of finding and executing a compromise exceptionally high. In June, a DIMACS- and IEEE-sponsored workshop at Carnegie Mellon will discuss the technical foundations of this strategy. If we can create and operate a strategically advanced cyber infrastructure that requires adversaries to expend astronomical amounts of energy to find and execute economy-threatening attacks, then energy becomes the currency in which one traffics to protect or attack commerce around the world. Ultimately, access to energy could become a deterrent to economy-threatening cyber attacks.    Over the last 45 years, we have created the Internet and a modern evolving 21st century economy. Paradoxically, our own innovation and collective success have created today's trust and resiliency challenges. Nevertheless, I am optimistic that over the next 45 years, we will make our 21st century economy fully trustworthy and resilient.    Thank you.</t>
   </si>
   <si>
@@ -238,6 +289,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley [presiding]. Now that we have some balance here, we can continue. And so we will continue the hearing. I believe I am the next questioner. So thank you very much for your patience on that, and now that we have a balanced panel, we can continue.    I am trying to follow some of the hyperbolae that goes on in Washington often about cybersecurity, terrorism, debt, climate change, I was interested in the last few days the--Lee Hamilton with the 9/11 Commission came out and said the biggest threat facing America is not ISIS, but cyber attacks. The FBI director said it is the greatest threat to national security. And the director of national intelligence, Clapper, said that the online assaults undermine U.S. national security.    Do you agree that that is one of our biggest threats if not the biggest threat that we face is the issue we are talking about here today? Each of you, just kind of a yes or no.</t>
   </si>
   <si>
@@ -370,6 +427,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to thank you for coming in today to testify. The last Congress, I was the subcommittee chairman of Health and Technology on small business. I had a hearing on cybersecurity, and I don't think we can say this too often to small business, there is a threat to them, there is a threat to their very existence. And so maybe today we could just, Mr. Bejtlich, continue this discussion more as a PR to small business.    What I found was most small businesses are naive to the threat. They operate under, ``it won't happen to me.'' They are going to go after Target or Citibank or someone, they are not coming after my small business, which, in fact, and maybe you could expand on this, I think many of these folks see small businesses as the easy way into bigger companies. If they are a supplier to General Electric, if they are a supplier to a big company, an attacker can get into that small supplier and work through their connection to get through the supply chain, so to speak. But what we found was the staggering percentage of businesses that are out of business within 12 months of a data breach. It threatens their very existence because as, and you can expand on this really as well, if someone gets into their employee information, they have to provide credit insurance for that employee for some extended period of time, and that it out of their pocket, but also if a big corporation finds that that supplier was the access point, guess what, that big company is not going to buy from that supplier. If the customers find out, as we have seen, their data has been breached, they are not going to shop at that store.    So we are trying to say, and alert to small business--most of them don't have security policies, cybersecurity policies, they are sloppy with passwords, and they are just begging to be the target. So I don't know if you would want to just expand on a little bit of what I just said to--the warning to small businesses----</t>
   </si>
   <si>
@@ -401,6 +464,12 @@
   </si>
   <si>
     <t>400653</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And I want to thank our witnesses. I apologize for goings and comings of the members because we had votes today. I guess for this hearing, the good news is that Homeland Security will stay in business.    But as we all know, last month, with the health insurer, Anthem, disclosed a significant breach of up to 80 million of its customers and employees. It is my understanding that the breach does not involve any credit or banking information, nor that there is evidence at this time that any medical information was obtained. While I appreciate the steps Anthem has taken to make it right with their customers, I do have some general questions on cybersecurity in the healthcare sector.    Dr. Shannon, is there any reason to believe that the healthcare industry is more vulnerable than other sectors to these type of data breaches, and do we have any reason to believe that the health sector is underinvesting in cybersecurity protections?</t>
@@ -824,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,3269 +923,3862 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
       <c r="H22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
       <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
       <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
       <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G95" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
       <c r="H98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G102" t="s">
+        <v>137</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G103" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G104" t="s">
+        <v>137</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G106" t="s">
+        <v>137</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G107" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G108" t="s">
+        <v>137</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G109" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G110" t="s">
+        <v>137</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G112" t="s">
+        <v>150</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G114" t="s">
+        <v>150</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G115" t="s">
+        <v>53</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G116" t="s">
+        <v>150</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G117" t="s">
+        <v>53</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G118" t="s">
+        <v>150</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>128</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G120" t="s">
+        <v>150</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G121" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G124" t="s">
+        <v>150</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G125" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>128</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G126" t="s">
+        <v>150</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G127" t="s">
+        <v>47</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G128" t="s">
+        <v>53</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G129" t="s">
+        <v>47</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>128</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G130" t="s">
+        <v>150</v>
+      </c>
       <c r="H130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G131" t="s">
+        <v>47</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G132" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="G133" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>128</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G134" t="s">
+        <v>150</v>
+      </c>
       <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
       <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95373.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400101</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DeGette</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
   </si>
   <si>
     <t>412487</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>McKinley</t>
@@ -893,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,3859 +944,4180 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I61" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" t="s">
-        <v>53</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>53</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" t="s">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" t="s">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" t="s">
-        <v>53</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>58</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" t="s">
-        <v>53</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
-      </c>
-      <c r="G93" t="s">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" t="s">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G102" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" t="s">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G106" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s">
-        <v>42</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" t="s">
-        <v>42</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G110" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G112" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" t="s">
-        <v>53</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G114" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" t="s">
-        <v>53</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>58</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G116" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" t="s">
-        <v>53</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G118" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" t="s">
-        <v>42</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" t="s">
-        <v>42</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G122" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" t="s">
-        <v>42</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" t="s">
-        <v>42</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G126" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G127" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H127" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" t="s">
-        <v>53</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>58</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H129" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G130" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G131" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H131" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132" t="s">
-        <v>53</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>58</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" t="s">
-        <v>42</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G134" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>176</v>
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
